--- a/src/main/webapp/WEB-INF/public/repairman.xlsx
+++ b/src/main/webapp/WEB-INF/public/repairman.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="11355" windowHeight="3270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +56,10 @@
   </si>
   <si>
     <t>王高杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -442,8 +447,8 @@
       <c r="D2">
         <v>13711111111</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
